--- a/Diary 문구.xlsx
+++ b/Diary 문구.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M\Desktop\3조\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17C06BD2-591A-4252-943E-614D099B71F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36EFB8E-BB93-4BFE-BF94-D5F7D5AE048A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1005" windowWidth="16080" windowHeight="13215" xr2:uid="{AAC76946-A64A-4490-B70F-D7D411739D26}"/>
+    <workbookView xWindow="12465" yWindow="810" windowWidth="13065" windowHeight="13215" xr2:uid="{AAC76946-A64A-4490-B70F-D7D411739D26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>얻은 가면의 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,26 @@
   </si>
   <si>
     <t>"입가에 경련이 일 정도로 웃음이 멈추지 않는 날이 있다. 제어할 수 없는 고양감이 나를 벼랑 끝으로 내몰고, 정신을 차리면 나는 위험한 곳에 서 있다. 일기장 위로 미친 듯이 휘갈겨진 낙서가 말을 건다. '더 높이 뛰어봐! 우리가 함께라면 추락도 축제일 뿐이야. 조만간 멈추지 않는 웃음을 선물해 줄게.'"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠식당함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿰뚫림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비명조차 지를 수 없는 무의식의 끝자락으로 밀려나며, 주인공은 자신의 눈꺼풀 뒤에서 낯선 인격이 승전보를 울리는 것을 무력하게 지켜본다. 이제 이 일기장에 기록될 미래에 '나'를 위한 자리는 없으며, 오직 육체를 나눠 가진 침입자들의 광기 어린 연대기만이 남겨질 뿐이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날카로운 가시가 육신을 꿰뚫는 순간, 몸이라는 하나의 그릇을 공유하던 수많은 자아의 비명이 동시에 터져 나온다. 채 피어보지도 못한 인격들은 망가진 육체 속에서 썰물처럼 빠져나가고, 일기장 위에는 누구의 것인지 알 수 없는 선혈만이 튀어 올라 잔혹한 마침표를 찍는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E75FF91-184C-49C5-ABEC-2FBFB28CEAB2}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -750,8 +770,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="12" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
